--- a/Documents/ProductBacklog_Group2_EbooksStore.xlsx
+++ b/Documents/ProductBacklog_Group2_EbooksStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung1\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung1\OneDrive\Desktop\Project-G02\E-Book-Order-G02\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FF69DD87-4486-499E-AFC1-55918AB6EA90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F1E4658D-7F53-474B-94F7-AF9FBD593417}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BA253-6B40-4D91-A753-3B3F7B5A21FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
   <si>
     <t>Hạng mục trong Project Backlog</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Nguyễn Trung Thăng</t>
   </si>
   <si>
-    <t>Usecase Description</t>
-  </si>
-  <si>
     <t>Activity Diagram</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
   </si>
   <si>
     <t>Giỏ hàng</t>
-  </si>
-  <si>
-    <t>tùng,Thăng</t>
   </si>
   <si>
     <t>Là người dùng tôi muốn xem danh sách sách và chọn quyển sách mình muốn rồi thêm vào giỏ hàng</t>
@@ -505,13 +499,7 @@
     <t>DAL(bao gồm test)</t>
   </si>
   <si>
-    <t>Usecase</t>
-  </si>
-  <si>
     <t>6 ngày</t>
-  </si>
-  <si>
-    <t>DAL(bao gồm teest)</t>
   </si>
   <si>
     <t>Cửa hàng Ebook Online</t>
@@ -525,12 +513,220 @@
   <si>
     <t>Đánh giá sản phẩm</t>
   </si>
+  <si>
+    <t>Thiết kế database</t>
+  </si>
+  <si>
+    <t>Thiết kế ClassDiagram</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>Tìm và xác định các UseCase phân tích UseCase</t>
+  </si>
+  <si>
+    <t>Khó khăn trong việc xác định UseCase của hệ thống</t>
+  </si>
+  <si>
+    <t>Mô tả từng chi tiết của thực tế</t>
+  </si>
+  <si>
+    <t>Khó khăn trong việc xác định thuộc tính của từng thực thể</t>
+  </si>
+  <si>
+    <t>Thiết kế Database</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Thiết kế vẽ Actor</t>
+  </si>
+  <si>
+    <t>Khó khăn trong việc lựa chọn thực thể chính xác để vẽ</t>
+  </si>
+  <si>
+    <t>Thiết kế vẽ Sequence Diagram</t>
+  </si>
+  <si>
+    <t>ERD Diagram</t>
+  </si>
+  <si>
+    <t>Thiết kế Entity RelationSHop Diagram</t>
+  </si>
+  <si>
+    <t>Tạo Database</t>
+  </si>
+  <si>
+    <t>Viết Code SQL theo mô tả ERD trong Sprint 1 đã tạo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tạo  Project theo mô hình 3 lớp</t>
+  </si>
+  <si>
+    <t>Tạo mô hình 3 lớp như code demo rồi đăng lên GitHub</t>
+  </si>
+  <si>
+    <t>Sử dụng git và quản lí project sao cho hợp lí giữa các thành viên trong nhóm</t>
+  </si>
+  <si>
+    <t>Viết UseCase Description</t>
+  </si>
+  <si>
+    <t>Viết mô tả cho các UsecCase</t>
+  </si>
+  <si>
+    <t>Thiết kế Activity Diagram</t>
+  </si>
+  <si>
+    <t>Thiết kế GUI cho project</t>
+  </si>
+  <si>
+    <t>Kết nối DatabaseSql sử dụng C#</t>
+  </si>
+  <si>
+    <t>Viết các tầng kết nối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra lại và  tối ưu </t>
+  </si>
+  <si>
+    <t>Kiểm tra lại toàn bộ những gì đã viết , sửa đổi nếu không hợp lí</t>
+  </si>
+  <si>
+    <t>Viết code cho tầng Persitence</t>
+  </si>
+  <si>
+    <t>Viết code các class tầng Persitence dựa theo Diagram tạo</t>
+  </si>
+  <si>
+    <t>Viết code tầng DAL</t>
+  </si>
+  <si>
+    <t>Kết nối Database, viết UserDAL , OrderDAL , ItemDAL, FeedBack, DBHelper</t>
+  </si>
+  <si>
+    <t>Mô tả kiểm thử và DAL Test</t>
+  </si>
+  <si>
+    <t>Viết mô tả chi tiết kiểm thử cho các phương thức puplic trong tầng DAL, Viết code theo mô tả của Mô tả kiểm thử</t>
+  </si>
+  <si>
+    <t>Viết code cho tầng BL</t>
+  </si>
+  <si>
+    <t>Viết chức năng chính tầng Bl kết nối với tầng DAL</t>
+  </si>
+  <si>
+    <t>Viết kiểm thử cho tầng BL</t>
+  </si>
+  <si>
+    <t>Viết kiểm thử cho chức năng tầng BL đã viết, sửa đổi nếu không hợp lí</t>
+  </si>
+  <si>
+    <t>Viết các chứng năng chính cho tầng PL_Console</t>
+  </si>
+  <si>
+    <t>Viết code Full cho tầng PL_Console</t>
+  </si>
+  <si>
+    <t>Chưa build được file exe</t>
+  </si>
+  <si>
+    <t>Viết file Docs và Slide thuyểt trình</t>
+  </si>
+  <si>
+    <t>Viết đầy đủ file docs bổ sung những chỗ còn thiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lần đầu viết docs </t>
+  </si>
+  <si>
+    <t>Bổ sung những thứ còn thiếu cho project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tối ưu code tối giản </t>
+  </si>
+  <si>
+    <t>Format code</t>
+  </si>
+  <si>
+    <t>Format GUI cho đẹp</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Vẽ Activity Diagram</t>
+  </si>
+  <si>
+    <t>Thăng</t>
+  </si>
+  <si>
+    <t>31/05/2019 đến       01/06/2019</t>
+  </si>
+  <si>
+    <t>30/05/2019  đến      31/05/2019</t>
+  </si>
+  <si>
+    <t>30/05/2019  đến    31/05/2019</t>
+  </si>
+  <si>
+    <t>29/05/2019 đến 30/05/2019</t>
+  </si>
+  <si>
+    <t>28/05/2019 đến 29/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/05/2019 đến           27/05/2019
+</t>
+  </si>
+  <si>
+    <t>24/05/2019   đến              26/05/2019</t>
+  </si>
+  <si>
+    <t>23/05/2019    đến                24/05/2019</t>
+  </si>
+  <si>
+    <t>20/05/2019 đến        21/05/2019</t>
+  </si>
+  <si>
+    <t>19/05/2019 đến               20/05/2019</t>
+  </si>
+  <si>
+    <t>18/05/2019 đến                      19/05/2019</t>
+  </si>
+  <si>
+    <t>17/05/2019 đến                           18/05/2019</t>
+  </si>
+  <si>
+    <t>16/05/2019 đến                          17/05/2019</t>
+  </si>
+  <si>
+    <t>15/05/2019 đến           16/05/2019</t>
+  </si>
+  <si>
+    <t>14/05/2019  đến 15/05/2019</t>
+  </si>
+  <si>
+    <t>5/5/2019 đến                     10/5/2019</t>
+  </si>
+  <si>
+    <t>2/5/2019  đến                               5/5/2019</t>
+  </si>
+  <si>
+    <t>DatabaseSql</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -562,19 +758,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF292B2C"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -606,6 +790,42 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="7">
@@ -646,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -773,13 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -841,19 +1054,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -933,12 +1133,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -958,12 +1219,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -973,19 +1228,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,34 +1243,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,28 +1261,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,28 +1288,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,16 +1384,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,88 +1402,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BFEABC8F-7C00-492A-992B-E45C040CA75F}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1319,16 +1632,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1386,19 +1699,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,7 +1927,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$K$1</c:f>
+              <c:f>'Sprint 1'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1647,30 +1960,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$L$1:$R$1</c:f>
+              <c:f>'Sprint 1'!$M$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,7 +2000,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$K$2</c:f>
+              <c:f>'Sprint 1'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1720,27 +2033,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$L$2:$R$2</c:f>
+              <c:f>'Sprint 1'!$M$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.333333333333336</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.666666666666671</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.000000000000007</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.333333333333343</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.666666666666677</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1997,22 +2310,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2070,22 +2383,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2350,16 +2663,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -2423,22 +2736,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.666666666666668</c:v>
+                  <c:v>18.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.333333333333336</c:v>
+                  <c:v>14.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.000000000000004</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.666666666666671</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3333333333333384</c:v>
+                  <c:v>3.6666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2698,19 +3011,19 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3002,7 +3315,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
@@ -3077,9 +3390,9 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>49530</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:rowOff>70484</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5048250" cy="3086100"/>
+    <xdr:ext cx="5048250" cy="4053842"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 4">
@@ -3412,7 +3725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8:S8"/>
+      <selection pane="bottomLeft" sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3429,46 +3742,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="2">
         <f>SUM(F3:F5)</f>
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1" s="2">
         <f>L1-L1/4</f>
-        <v>225</v>
+        <v>172.5</v>
       </c>
       <c r="N1" s="2">
         <f>M1-L1/4</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="O1" s="2">
         <f>N1-L1/4</f>
-        <v>75</v>
+        <v>57.5</v>
       </c>
       <c r="P1" s="2">
         <f>O1-L1/4</f>
@@ -3480,12 +3793,12 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
@@ -3503,23 +3816,23 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(F3:F5)</f>
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M2" s="2">
         <f>SUM(G3:G5)</f>
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2">
         <f>SUM(H3:H5)</f>
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2">
         <f>SUM(I3:I5)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2">
         <f>SUM(J3:J5)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -3527,33 +3840,33 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="36.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30">
-        <v>100</v>
-      </c>
-      <c r="G3" s="11">
-        <v>75</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20">
         <v>50</v>
       </c>
-      <c r="I3" s="11">
-        <v>25</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10"/>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -3565,33 +3878,33 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
-        <v>100</v>
-      </c>
-      <c r="G4" s="11">
-        <v>75</v>
-      </c>
-      <c r="H4" s="11">
-        <v>50</v>
-      </c>
-      <c r="I4" s="11">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>80</v>
+      </c>
+      <c r="G4" s="9">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -3603,34 +3916,33 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A5" s="47">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47">
+      <c r="C5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36">
         <v>100</v>
       </c>
-      <c r="G5" s="47">
-        <v>75</v>
-      </c>
-      <c r="H5" s="47">
+      <c r="G5" s="36">
+        <v>15</v>
+      </c>
+      <c r="H5" s="36">
+        <v>25</v>
+      </c>
+      <c r="I5" s="36">
         <v>50</v>
       </c>
-      <c r="I5" s="47">
-        <v>25</v>
-      </c>
-      <c r="J5" s="47">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="J5" s="36">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -3642,33 +3954,33 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A6" s="48">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48">
-        <v>100</v>
-      </c>
-      <c r="G6" s="48">
-        <v>75</v>
-      </c>
-      <c r="H6" s="48">
+      <c r="B6" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37">
         <v>50</v>
       </c>
-      <c r="I6" s="48">
-        <v>25</v>
-      </c>
-      <c r="J6" s="48">
-        <v>0</v>
-      </c>
-      <c r="K6" s="46"/>
+      <c r="G6" s="37">
+        <v>10</v>
+      </c>
+      <c r="H6" s="37">
+        <v>20</v>
+      </c>
+      <c r="I6" s="37">
+        <v>10</v>
+      </c>
+      <c r="J6" s="37">
+        <v>10</v>
+      </c>
+      <c r="K6" s="35"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3680,7 +3992,7 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="45.75" customHeight="1">
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3692,7 +4004,7 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="50.25" customHeight="1">
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -3704,7 +4016,7 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1">
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3716,7 +4028,7 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="K10" s="10"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -3728,7 +4040,7 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K11" s="10"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -3740,7 +4052,7 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K12" s="10"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3752,7 +4064,7 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -3764,7 +4076,7 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K14" s="10"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -3776,7 +4088,7 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K15" s="10"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -3788,7 +4100,7 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="22.5" customHeight="1">
-      <c r="K16" s="10"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -3800,7 +4112,7 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K17" s="10"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -3812,7 +4124,7 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K18" s="10"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -3824,7 +4136,7 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K19" s="10"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3836,7 +4148,7 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K20" s="10"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3848,7 +4160,7 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K21" s="10"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3860,7 +4172,7 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K22" s="10"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3872,7 +4184,7 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K23" s="10"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3884,7 +4196,7 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K24" s="10"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3896,7 +4208,7 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K25" s="10"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3908,7 +4220,7 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K26" s="10"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3920,7 +4232,7 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K27" s="10"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3932,7 +4244,7 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K28" s="10"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3944,7 +4256,7 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K29" s="10"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3956,7 +4268,7 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K30" s="10"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3968,7 +4280,7 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K31" s="10"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3980,7 +4292,7 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K32" s="10"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3992,7 +4304,7 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K33" s="10"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -4004,7 +4316,7 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K34" s="10"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -4016,7 +4328,7 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K35" s="10"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -4028,7 +4340,7 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K36" s="10"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -4040,7 +4352,7 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K37" s="10"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -4052,7 +4364,7 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K38" s="10"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -4064,7 +4376,7 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K39" s="10"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4076,7 +4388,7 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K40" s="10"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4088,7 +4400,7 @@
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K41" s="10"/>
+      <c r="K41" s="8"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4100,7 +4412,7 @@
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K42" s="10"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -4112,7 +4424,7 @@
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K43" s="10"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4124,7 +4436,7 @@
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K44" s="10"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -4136,7 +4448,7 @@
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K45" s="10"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4148,7 +4460,7 @@
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K46" s="10"/>
+      <c r="K46" s="8"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -4160,7 +4472,7 @@
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K47" s="10"/>
+      <c r="K47" s="8"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4172,7 +4484,7 @@
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K48" s="10"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4184,7 +4496,7 @@
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K49" s="10"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -4196,7 +4508,7 @@
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K50" s="10"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -4208,7 +4520,7 @@
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K51" s="10"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4220,7 +4532,7 @@
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K52" s="10"/>
+      <c r="K52" s="8"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4232,7 +4544,7 @@
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K53" s="10"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -4244,7 +4556,7 @@
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K54" s="10"/>
+      <c r="K54" s="8"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -4256,7 +4568,7 @@
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K55" s="10"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -4268,7 +4580,7 @@
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K56" s="10"/>
+      <c r="K56" s="8"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -4280,7 +4592,7 @@
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K57" s="10"/>
+      <c r="K57" s="8"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -4292,7 +4604,7 @@
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K58" s="10"/>
+      <c r="K58" s="8"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -4304,7 +4616,7 @@
       <c r="T58" s="3"/>
     </row>
     <row r="59" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K59" s="10"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -4316,7 +4628,7 @@
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K60" s="10"/>
+      <c r="K60" s="8"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -4328,7 +4640,7 @@
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K61" s="10"/>
+      <c r="K61" s="8"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -4340,7 +4652,7 @@
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K62" s="10"/>
+      <c r="K62" s="8"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -4352,7 +4664,7 @@
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K63" s="10"/>
+      <c r="K63" s="8"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -4364,7 +4676,7 @@
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K64" s="10"/>
+      <c r="K64" s="8"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -4376,7 +4688,7 @@
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K65" s="10"/>
+      <c r="K65" s="8"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -4388,7 +4700,7 @@
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K66" s="10"/>
+      <c r="K66" s="8"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -4400,7 +4712,7 @@
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K67" s="10"/>
+      <c r="K67" s="8"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -4412,7 +4724,7 @@
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K68" s="10"/>
+      <c r="K68" s="8"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -4424,7 +4736,7 @@
       <c r="T68" s="3"/>
     </row>
     <row r="69" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K69" s="10"/>
+      <c r="K69" s="8"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -4436,7 +4748,7 @@
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K70" s="10"/>
+      <c r="K70" s="8"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -4448,7 +4760,7 @@
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K71" s="10"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -4460,7 +4772,7 @@
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K72" s="10"/>
+      <c r="K72" s="8"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -4472,7 +4784,7 @@
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K73" s="10"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -4484,7 +4796,7 @@
       <c r="T73" s="3"/>
     </row>
     <row r="74" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K74" s="10"/>
+      <c r="K74" s="8"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -4496,7 +4808,7 @@
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K75" s="10"/>
+      <c r="K75" s="8"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -4508,7 +4820,7 @@
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K76" s="10"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -4520,7 +4832,7 @@
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K77" s="10"/>
+      <c r="K77" s="8"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -4532,7 +4844,7 @@
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K78" s="10"/>
+      <c r="K78" s="8"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -4544,7 +4856,7 @@
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K79" s="10"/>
+      <c r="K79" s="8"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -4556,7 +4868,7 @@
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K80" s="10"/>
+      <c r="K80" s="8"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -4568,7 +4880,7 @@
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K81" s="10"/>
+      <c r="K81" s="8"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -4580,7 +4892,7 @@
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K82" s="10"/>
+      <c r="K82" s="8"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -4592,7 +4904,7 @@
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K83" s="10"/>
+      <c r="K83" s="8"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -4604,7 +4916,7 @@
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K84" s="10"/>
+      <c r="K84" s="8"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -4616,7 +4928,7 @@
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K85" s="10"/>
+      <c r="K85" s="8"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -4628,7 +4940,7 @@
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K86" s="10"/>
+      <c r="K86" s="8"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -4640,7 +4952,7 @@
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K87" s="10"/>
+      <c r="K87" s="8"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -4652,7 +4964,7 @@
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K88" s="10"/>
+      <c r="K88" s="8"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -4664,7 +4976,7 @@
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K89" s="10"/>
+      <c r="K89" s="8"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -4676,7 +4988,7 @@
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K90" s="10"/>
+      <c r="K90" s="8"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -4688,7 +5000,7 @@
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K91" s="10"/>
+      <c r="K91" s="8"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -4700,7 +5012,7 @@
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K92" s="10"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -4712,7 +5024,7 @@
       <c r="T92" s="3"/>
     </row>
     <row r="93" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K93" s="10"/>
+      <c r="K93" s="8"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -4724,7 +5036,7 @@
       <c r="T93" s="3"/>
     </row>
     <row r="94" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K94" s="10"/>
+      <c r="K94" s="8"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -4736,7 +5048,7 @@
       <c r="T94" s="3"/>
     </row>
     <row r="95" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K95" s="10"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -4748,7 +5060,7 @@
       <c r="T95" s="3"/>
     </row>
     <row r="96" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K96" s="10"/>
+      <c r="K96" s="8"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -4760,7 +5072,7 @@
       <c r="T96" s="3"/>
     </row>
     <row r="97" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K97" s="10"/>
+      <c r="K97" s="8"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -4772,7 +5084,7 @@
       <c r="T97" s="3"/>
     </row>
     <row r="98" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K98" s="10"/>
+      <c r="K98" s="8"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -4784,7 +5096,7 @@
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K99" s="10"/>
+      <c r="K99" s="8"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -4796,7 +5108,7 @@
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K100" s="10"/>
+      <c r="K100" s="8"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -5745,202 +6057,207 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:U990"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="18" width="6.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="61.7109375" customWidth="1"/>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2">
-        <f t="shared" ref="L1:R1" si="0">SUM(D3:D18)</f>
-        <v>76</v>
-      </c>
       <c r="M1" s="2">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f t="shared" ref="M1:S1" si="0">SUM(E3:E8)</f>
+        <v>48</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S1" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2">
+        <f>SUM(E3:E8)</f>
+        <v>48</v>
+      </c>
+      <c r="N2" s="2">
+        <f>M2-M2/6</f>
+        <v>40</v>
+      </c>
+      <c r="O2" s="2">
+        <f>N2-M2/6</f>
+        <v>32</v>
+      </c>
+      <c r="P2" s="2">
+        <f>O2-M2/6</f>
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>P2-M2/6</f>
+        <v>16</v>
+      </c>
+      <c r="R2" s="2">
+        <f>Q2-M2/6</f>
+        <v>8</v>
+      </c>
+      <c r="S2" s="2">
+        <f>R2-M2/6</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2">
-        <f>SUM(D3:D18)</f>
-        <v>76</v>
-      </c>
-      <c r="M2" s="2">
-        <f>L2-L2/6</f>
-        <v>63.333333333333336</v>
-      </c>
-      <c r="N2" s="2">
-        <f>M2-L2/6</f>
-        <v>50.666666666666671</v>
-      </c>
-      <c r="O2" s="2">
-        <f>N2-L2/6</f>
-        <v>38.000000000000007</v>
-      </c>
-      <c r="P2" s="2">
-        <f>O2-L2/6</f>
-        <v>25.333333333333343</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>P2-L2/6</f>
-        <v>12.666666666666677</v>
-      </c>
-      <c r="R2" s="2">
-        <f>Q2-L2/6</f>
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="11">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="K3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="L3" s="7"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A4" s="63"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="11">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -5949,38 +6266,39 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="11" t="s">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="D5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="9">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9">
         <v>4</v>
       </c>
-      <c r="I5" s="11">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -5989,40 +6307,41 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A6" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="49"/>
+      <c r="C6" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="11">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="K6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -6031,38 +6350,39 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A7" s="69"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -6071,39 +6391,40 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8" si="1">E8</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" ref="E8" si="1">D8</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="H8" s="9">
         <v>2</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -6112,34 +6433,17 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="5.25" hidden="1" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11">
-        <v>4</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>3</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -6148,40 +6452,10 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="11">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" ref="I10:J10" si="2">H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L10" s="7"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -6190,44 +6464,10 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" ref="E11:J11" si="3">D11</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L11" s="7"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -6236,43 +6476,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" ref="E12:J12" si="4">D12</f>
-        <v>4</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L12" s="7"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -6281,42 +6488,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="11">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" ref="E13:I13" si="5">D13</f>
-        <v>4</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="11">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L13" s="7"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -6325,40 +6500,10 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4</v>
-      </c>
-      <c r="F14" s="11">
-        <v>4</v>
-      </c>
-      <c r="G14" s="11">
-        <v>4</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" ref="I14:J14" si="6">H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L14" s="7"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -6367,43 +6512,10 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A15" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="11">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" ref="H15:J15" si="7">G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L15" s="7"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -6412,40 +6524,10 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:I16" si="8">E16</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="11">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="12.75" customHeight="1">
+      <c r="L16" s="7"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -6454,40 +6536,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="11">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4</v>
-      </c>
-      <c r="F17" s="11">
-        <v>4</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" ref="I17:J17" si="9">H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L17" s="7"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -6496,41 +6548,10 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="11">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" ref="G18:I18" si="10">F18</f>
-        <v>4</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L18" s="7"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -6539,17 +6560,10 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L19" s="7"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -6558,10 +6572,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K20" s="9"/>
-      <c r="L20" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -6570,10 +6584,10 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K21" s="9"/>
-      <c r="L21" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L21" s="7"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -6582,10 +6596,10 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K22" s="9"/>
-      <c r="L22" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L22" s="7"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -6594,10 +6608,10 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K23" s="9"/>
-      <c r="L23" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L23" s="7"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -6606,10 +6620,10 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K24" s="9"/>
-      <c r="L24" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L24" s="7"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -6618,10 +6632,10 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K25" s="9"/>
-      <c r="L25" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L25" s="7"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -6630,10 +6644,10 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K26" s="9"/>
-      <c r="L26" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L26" s="7"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -6642,10 +6656,10 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K27" s="9"/>
-      <c r="L27" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L27" s="7"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -6654,10 +6668,10 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K28" s="9"/>
-      <c r="L28" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L28" s="7"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -6666,10 +6680,10 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K29" s="9"/>
-      <c r="L29" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L29" s="7"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -6678,10 +6692,10 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K30" s="9"/>
-      <c r="L30" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L30" s="7"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -6690,10 +6704,10 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K31" s="9"/>
-      <c r="L31" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L31" s="7"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -6702,10 +6716,10 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K32" s="9"/>
-      <c r="L32" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L32" s="7"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -6714,10 +6728,10 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K33" s="9"/>
-      <c r="L33" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L33" s="7"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -6726,10 +6740,10 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K34" s="9"/>
-      <c r="L34" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L34" s="7"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -6738,10 +6752,10 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K35" s="9"/>
-      <c r="L35" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L35" s="7"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -6750,10 +6764,10 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K36" s="9"/>
-      <c r="L36" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L36" s="7"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -6762,10 +6776,10 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K37" s="9"/>
-      <c r="L37" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L37" s="7"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -6774,10 +6788,10 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K38" s="9"/>
-      <c r="L38" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L38" s="7"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -6786,10 +6800,10 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K39" s="9"/>
-      <c r="L39" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L39" s="7"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -6798,10 +6812,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K40" s="9"/>
-      <c r="L40" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L40" s="7"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -6810,10 +6824,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K41" s="9"/>
-      <c r="L41" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L41" s="7"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -6822,10 +6836,10 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K42" s="9"/>
-      <c r="L42" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L42" s="7"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -6834,10 +6848,10 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K43" s="9"/>
-      <c r="L43" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L43" s="7"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -6846,10 +6860,10 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K44" s="9"/>
-      <c r="L44" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L44" s="7"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -6858,10 +6872,10 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K45" s="9"/>
-      <c r="L45" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L45" s="7"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -6870,10 +6884,10 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K46" s="9"/>
-      <c r="L46" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L46" s="7"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -6882,10 +6896,10 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K47" s="9"/>
-      <c r="L47" s="3"/>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L47" s="7"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -6894,10 +6908,10 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-    </row>
-    <row r="48" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K48" s="9"/>
-      <c r="L48" s="3"/>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L48" s="7"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -6906,10 +6920,10 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K49" s="9"/>
-      <c r="L49" s="3"/>
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L49" s="7"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -6918,10 +6932,10 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K50" s="9"/>
-      <c r="L50" s="3"/>
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L50" s="7"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -6930,10 +6944,10 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K51" s="9"/>
-      <c r="L51" s="3"/>
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L51" s="7"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -6942,10 +6956,10 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K52" s="9"/>
-      <c r="L52" s="3"/>
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L52" s="7"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -6954,10 +6968,10 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K53" s="9"/>
-      <c r="L53" s="3"/>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L53" s="7"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -6966,10 +6980,10 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K54" s="9"/>
-      <c r="L54" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L54" s="7"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -6978,10 +6992,10 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K55" s="9"/>
-      <c r="L55" s="3"/>
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L55" s="7"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -6990,10 +7004,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K56" s="9"/>
-      <c r="L56" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L56" s="7"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -7002,10 +7016,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K57" s="9"/>
-      <c r="L57" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L57" s="7"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -7014,10 +7028,10 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K58" s="9"/>
-      <c r="L58" s="3"/>
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L58" s="7"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -7026,10 +7040,10 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K59" s="9"/>
-      <c r="L59" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L59" s="7"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -7038,10 +7052,10 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K60" s="9"/>
-      <c r="L60" s="3"/>
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L60" s="7"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -7050,10 +7064,10 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K61" s="9"/>
-      <c r="L61" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L61" s="7"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -7062,10 +7076,10 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K62" s="9"/>
-      <c r="L62" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L62" s="7"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -7074,10 +7088,10 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-    </row>
-    <row r="63" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K63" s="9"/>
-      <c r="L63" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L63" s="7"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -7086,10 +7100,10 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-    </row>
-    <row r="64" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K64" s="9"/>
-      <c r="L64" s="3"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L64" s="7"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -7098,10 +7112,10 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-    </row>
-    <row r="65" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K65" s="9"/>
-      <c r="L65" s="3"/>
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L65" s="7"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -7110,10 +7124,10 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
-    </row>
-    <row r="66" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K66" s="9"/>
-      <c r="L66" s="3"/>
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L66" s="7"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -7122,10 +7136,10 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-    </row>
-    <row r="67" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K67" s="9"/>
-      <c r="L67" s="3"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L67" s="7"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -7134,10 +7148,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K68" s="9"/>
-      <c r="L68" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L68" s="7"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -7146,10 +7160,10 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-    </row>
-    <row r="69" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K69" s="9"/>
-      <c r="L69" s="3"/>
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L69" s="7"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -7158,10 +7172,10 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-    </row>
-    <row r="70" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K70" s="9"/>
-      <c r="L70" s="3"/>
+      <c r="U69" s="3"/>
+    </row>
+    <row r="70" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L70" s="7"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -7170,10 +7184,10 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
-    </row>
-    <row r="71" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K71" s="9"/>
-      <c r="L71" s="3"/>
+      <c r="U70" s="3"/>
+    </row>
+    <row r="71" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L71" s="7"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -7182,10 +7196,10 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
-    </row>
-    <row r="72" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K72" s="9"/>
-      <c r="L72" s="3"/>
+      <c r="U71" s="3"/>
+    </row>
+    <row r="72" spans="12:21" ht="12.75" customHeight="1">
+      <c r="L72" s="7"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -7194,141 +7208,32 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
-    </row>
-    <row r="73" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K73" s="9"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K74" s="9"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K75" s="9"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K76" s="9"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-    </row>
-    <row r="77" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K77" s="9"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-    </row>
-    <row r="78" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K78" s="9"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="79" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K79" s="9"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-    </row>
-    <row r="80" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K80" s="9"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-    </row>
-    <row r="81" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K81" s="9"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-    </row>
-    <row r="82" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K82" s="9"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="84" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="85" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="86" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="87" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="88" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="89" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="90" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="91" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="92" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="93" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="94" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="95" spans="11:20" ht="12.75" customHeight="1"/>
-    <row r="96" spans="11:20" ht="12.75" customHeight="1"/>
+      <c r="U72" s="3"/>
+    </row>
+    <row r="73" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="74" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="75" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="76" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="77" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="78" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="79" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="80" spans="12:21" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -7505,16 +7410,16 @@
     <row r="270" ht="12.75" customHeight="1"/>
     <row r="271" ht="12.75" customHeight="1"/>
     <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
     <row r="283" ht="15.75" customHeight="1"/>
     <row r="284" ht="15.75" customHeight="1"/>
     <row r="285" ht="15.75" customHeight="1"/>
@@ -8223,27 +8128,16 @@
     <row r="988" ht="15.75" customHeight="1"/>
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A15:A18"/>
+  <mergeCells count="8">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8257,11 +8151,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1001"/>
+  <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8278,52 +8172,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="2">
-        <f t="shared" ref="L1:R1" si="0">SUM(D3:D10)</f>
-        <v>39</v>
+        <f t="shared" ref="L1:R1" si="0">SUM(D3:D11)</f>
+        <v>36</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="0"/>
@@ -8333,10 +8227,10 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
@@ -8359,28 +8253,28 @@
         <v>12</v>
       </c>
       <c r="L2" s="2">
-        <f>SUM(D3:D10)</f>
-        <v>39</v>
+        <f>SUM(D3:D11)</f>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <f>L2-L2/6</f>
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <f>M2-L2/6</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2">
         <f>N2-L2/6</f>
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="P2" s="2">
         <f>O2-L2/6</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="2">
         <f>P2-L2/6</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="2">
         <f>Q2-L2/6</f>
@@ -8390,143 +8284,136 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="9">
         <v>4</v>
       </c>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="79"/>
+      <c r="B4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" s="11">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11">
-        <v>8</v>
-      </c>
-      <c r="G4" s="11">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11">
-        <v>6</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="11">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="K5" s="7"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="11">
-        <v>6</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="A6" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -8538,108 +8425,108 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A8" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A9" s="76"/>
+      <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11">
-        <v>4</v>
-      </c>
-      <c r="G7" s="11">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="C9" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="11">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11">
-        <v>8</v>
-      </c>
-      <c r="H9" s="11">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11">
-        <v>4</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -8651,37 +8538,35 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A10" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="A10" s="77"/>
+      <c r="B10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -8693,35 +8578,37 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="11">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11">
-        <v>6</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="A11" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="11">
+      <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -8733,35 +8620,35 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11">
-        <v>8</v>
-      </c>
-      <c r="G12" s="11">
-        <v>8</v>
-      </c>
-      <c r="H12" s="11">
-        <v>8</v>
-      </c>
-      <c r="I12" s="11">
-        <v>8</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="A12" s="72"/>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6</v>
+      </c>
+      <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -8773,37 +8660,35 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A13" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="A13" s="72"/>
+      <c r="B13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="11">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -8812,37 +8697,40 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="11">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11">
-        <v>6</v>
-      </c>
-      <c r="F14" s="11">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11">
-        <v>6</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="A14" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="11">
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="11">
+      <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -8851,38 +8739,37 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="11">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11">
-        <v>8</v>
-      </c>
-      <c r="G15" s="11">
-        <v>8</v>
-      </c>
-      <c r="H15" s="11">
-        <v>8</v>
-      </c>
-      <c r="I15" s="11">
-        <v>8</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="A15" s="72"/>
+      <c r="B15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="9">
+        <v>6</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6</v>
+      </c>
+      <c r="F15" s="9">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -8894,8 +8781,35 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1">
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8</v>
+      </c>
+      <c r="I16" s="9">
+        <v>8</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -8903,6 +8817,8 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="12.75" customHeight="1">
       <c r="J17" s="3"/>
@@ -8916,7 +8832,6 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B18" s="44"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -8928,6 +8843,7 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B19" s="33"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -8971,7 +8887,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:18" ht="16.5" customHeight="1">
+    <row r="23" spans="2:18" ht="12.75" customHeight="1">
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -8993,7 +8909,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="2:18" ht="12.75" customHeight="1">
+    <row r="25" spans="2:18" ht="16.5" customHeight="1">
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -9720,6 +9636,7 @@
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="10:20" ht="12.75" customHeight="1">
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -9758,8 +9675,6 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
     </row>
     <row r="95" spans="10:20" ht="12.75" customHeight="1">
       <c r="K95" s="3"/>
@@ -9809,7 +9724,18 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
     </row>
-    <row r="99" spans="11:20" ht="12.75" customHeight="1"/>
+    <row r="99" spans="11:20" ht="12.75" customHeight="1">
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+    </row>
     <row r="100" spans="11:20" ht="12.75" customHeight="1"/>
     <row r="101" spans="11:20" ht="12.75" customHeight="1"/>
     <row r="102" spans="11:20" ht="12.75" customHeight="1"/>
@@ -10009,7 +9935,7 @@
     <row r="296" ht="12.75" customHeight="1"/>
     <row r="297" ht="12.75" customHeight="1"/>
     <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
     <row r="300" ht="15.75" customHeight="1"/>
     <row r="301" ht="15.75" customHeight="1"/>
     <row r="302" ht="15.75" customHeight="1"/>
@@ -10712,18 +10638,19 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10739,9 +10666,9 @@
   </sheetPr>
   <dimension ref="A1:T1003"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10758,44 +10685,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="2">
         <f>SUM(D11:D13)</f>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" ref="M1:R1" si="0">SUM(E3:E13)</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="0"/>
@@ -10813,10 +10740,10 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
@@ -10840,27 +10767,27 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(D11:D13)</f>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <f>L2-L2/6</f>
-        <v>26.666666666666668</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="N2" s="2">
         <f>M2-L2/6</f>
-        <v>21.333333333333336</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="O2" s="2">
         <f>N2-L2/6</f>
-        <v>16.000000000000004</v>
+        <v>11</v>
       </c>
       <c r="P2" s="2">
         <f>O2-L2/6</f>
-        <v>10.666666666666671</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="Q2" s="2">
         <f>P2-L2/6</f>
-        <v>5.3333333333333384</v>
+        <v>3.6666666666666674</v>
       </c>
       <c r="R2" s="2">
         <f>Q2-L2/6</f>
@@ -10870,171 +10797,171 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="B3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="14">
         <v>6</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="A4" s="85"/>
+      <c r="B4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="14">
         <v>6</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="24.6" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="79"/>
+      <c r="B5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="7"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="24.6" customHeight="1">
-      <c r="A6" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="A6" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="18">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="B6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="11">
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="7"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="18">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="A7" s="83"/>
+      <c r="B7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
-        <v>4</v>
-      </c>
-      <c r="G7" s="11">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11">
-        <v>4</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="11">
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -11046,35 +10973,35 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="24" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="18">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="A8" s="79"/>
+      <c r="B8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>0</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -11086,37 +11013,37 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="24" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="18">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="B9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -11128,35 +11055,35 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="18">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11">
-        <v>6</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="A10" s="83"/>
+      <c r="B10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="11">
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -11168,35 +11095,35 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="18">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="A11" s="79"/>
+      <c r="B11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -11208,67 +11135,67 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A12" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="A12" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="14">
         <v>8</v>
       </c>
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="9">
         <v>0</v>
       </c>
-      <c r="J12" s="11">
+    </row>
+    <row r="13" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A13" s="81"/>
+      <c r="B13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="18">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11">
-        <v>9</v>
-      </c>
-      <c r="G13" s="11">
-        <v>6</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -11280,35 +11207,35 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="26.45" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="18">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11">
-        <v>8</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="A14" s="82"/>
+      <c r="B14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>2</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -11320,7 +11247,7 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K15" s="10"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -11332,7 +11259,7 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1">
-      <c r="K16" s="10"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -11344,7 +11271,7 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K17" s="10"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -11356,7 +11283,7 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K18" s="10"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -11368,7 +11295,7 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K19" s="10"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -11380,7 +11307,7 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K20" s="10"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -11392,7 +11319,7 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K21" s="10"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -11404,7 +11331,7 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K22" s="10"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -11416,7 +11343,7 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K23" s="10"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -11428,7 +11355,7 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K24" s="10"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -11440,7 +11367,7 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K25" s="10"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -11452,7 +11379,7 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K26" s="10"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -11464,7 +11391,7 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K27" s="10"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -11476,7 +11403,7 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K28" s="10"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -11488,7 +11415,7 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K29" s="10"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -11500,7 +11427,7 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K30" s="10"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -11512,7 +11439,7 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K31" s="10"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -11524,7 +11451,7 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K32" s="10"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -11536,7 +11463,7 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K33" s="10"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -11548,7 +11475,7 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K34" s="10"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -11560,7 +11487,7 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K35" s="10"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -11572,7 +11499,7 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K36" s="10"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -11584,7 +11511,7 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K37" s="10"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -11596,7 +11523,7 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K38" s="10"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -11608,7 +11535,7 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K39" s="10"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -11620,7 +11547,7 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K40" s="10"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -11632,7 +11559,7 @@
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K41" s="10"/>
+      <c r="K41" s="8"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -11644,7 +11571,7 @@
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K42" s="10"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -11656,7 +11583,7 @@
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K43" s="10"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -11668,7 +11595,7 @@
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K44" s="10"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -11680,7 +11607,7 @@
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K45" s="10"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -11692,7 +11619,7 @@
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K46" s="10"/>
+      <c r="K46" s="8"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -11704,7 +11631,7 @@
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K47" s="10"/>
+      <c r="K47" s="8"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -11716,7 +11643,7 @@
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K48" s="10"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -11728,7 +11655,7 @@
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K49" s="10"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -11740,7 +11667,7 @@
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K50" s="10"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -11752,7 +11679,7 @@
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K51" s="10"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -11764,7 +11691,7 @@
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K52" s="10"/>
+      <c r="K52" s="8"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -11776,7 +11703,7 @@
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K53" s="10"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -11788,7 +11715,7 @@
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K54" s="10"/>
+      <c r="K54" s="8"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -11800,7 +11727,7 @@
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K55" s="10"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -11812,7 +11739,7 @@
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K56" s="10"/>
+      <c r="K56" s="8"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -11824,7 +11751,7 @@
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K57" s="10"/>
+      <c r="K57" s="8"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -11836,7 +11763,7 @@
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K58" s="10"/>
+      <c r="K58" s="8"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -11848,7 +11775,7 @@
       <c r="T58" s="3"/>
     </row>
     <row r="59" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K59" s="10"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -11860,7 +11787,7 @@
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K60" s="10"/>
+      <c r="K60" s="8"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -11872,7 +11799,7 @@
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K61" s="10"/>
+      <c r="K61" s="8"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -11884,7 +11811,7 @@
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K62" s="10"/>
+      <c r="K62" s="8"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -11896,7 +11823,7 @@
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K63" s="10"/>
+      <c r="K63" s="8"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -11908,7 +11835,7 @@
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K64" s="10"/>
+      <c r="K64" s="8"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -11920,7 +11847,7 @@
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K65" s="10"/>
+      <c r="K65" s="8"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -11932,7 +11859,7 @@
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K66" s="10"/>
+      <c r="K66" s="8"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -11944,7 +11871,7 @@
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K67" s="10"/>
+      <c r="K67" s="8"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -11956,7 +11883,7 @@
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K68" s="10"/>
+      <c r="K68" s="8"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -11968,7 +11895,7 @@
       <c r="T68" s="3"/>
     </row>
     <row r="69" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K69" s="10"/>
+      <c r="K69" s="8"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -11980,7 +11907,7 @@
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K70" s="10"/>
+      <c r="K70" s="8"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -11992,7 +11919,7 @@
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K71" s="10"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -12004,7 +11931,7 @@
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K72" s="10"/>
+      <c r="K72" s="8"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -12016,7 +11943,7 @@
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K73" s="10"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -12028,7 +11955,7 @@
       <c r="T73" s="3"/>
     </row>
     <row r="74" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K74" s="10"/>
+      <c r="K74" s="8"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -12040,7 +11967,7 @@
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K75" s="10"/>
+      <c r="K75" s="8"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -12052,7 +11979,7 @@
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K76" s="10"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -12064,7 +11991,7 @@
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K77" s="10"/>
+      <c r="K77" s="8"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -12076,7 +12003,7 @@
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K78" s="10"/>
+      <c r="K78" s="8"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -12088,7 +12015,7 @@
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K79" s="10"/>
+      <c r="K79" s="8"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -12100,7 +12027,7 @@
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K80" s="10"/>
+      <c r="K80" s="8"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -12112,7 +12039,7 @@
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K81" s="10"/>
+      <c r="K81" s="8"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -12124,7 +12051,7 @@
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K82" s="10"/>
+      <c r="K82" s="8"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -12136,7 +12063,7 @@
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K83" s="10"/>
+      <c r="K83" s="8"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -12148,7 +12075,7 @@
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K84" s="10"/>
+      <c r="K84" s="8"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -12160,7 +12087,7 @@
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K85" s="10"/>
+      <c r="K85" s="8"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -12172,7 +12099,7 @@
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K86" s="10"/>
+      <c r="K86" s="8"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -12184,7 +12111,7 @@
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K87" s="10"/>
+      <c r="K87" s="8"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -12196,7 +12123,7 @@
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K88" s="10"/>
+      <c r="K88" s="8"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -12208,7 +12135,7 @@
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K89" s="10"/>
+      <c r="K89" s="8"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -12220,7 +12147,7 @@
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K90" s="10"/>
+      <c r="K90" s="8"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -12232,7 +12159,7 @@
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K91" s="10"/>
+      <c r="K91" s="8"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -12244,7 +12171,7 @@
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K92" s="10"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -12256,7 +12183,7 @@
       <c r="T92" s="3"/>
     </row>
     <row r="93" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K93" s="10"/>
+      <c r="K93" s="8"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -12268,7 +12195,7 @@
       <c r="T93" s="3"/>
     </row>
     <row r="94" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K94" s="10"/>
+      <c r="K94" s="8"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -12280,7 +12207,7 @@
       <c r="T94" s="3"/>
     </row>
     <row r="95" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K95" s="10"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -12292,7 +12219,7 @@
       <c r="T95" s="3"/>
     </row>
     <row r="96" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K96" s="10"/>
+      <c r="K96" s="8"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -12304,7 +12231,7 @@
       <c r="T96" s="3"/>
     </row>
     <row r="97" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K97" s="10"/>
+      <c r="K97" s="8"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -12316,7 +12243,7 @@
       <c r="T97" s="3"/>
     </row>
     <row r="98" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K98" s="10"/>
+      <c r="K98" s="8"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -12328,7 +12255,7 @@
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K99" s="10"/>
+      <c r="K99" s="8"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -12340,7 +12267,7 @@
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K100" s="10"/>
+      <c r="K100" s="8"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -12352,7 +12279,7 @@
       <c r="T100" s="3"/>
     </row>
     <row r="101" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K101" s="10"/>
+      <c r="K101" s="8"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
@@ -12364,7 +12291,7 @@
       <c r="T101" s="3"/>
     </row>
     <row r="102" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K102" s="10"/>
+      <c r="K102" s="8"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
@@ -12376,7 +12303,7 @@
       <c r="T102" s="3"/>
     </row>
     <row r="103" spans="11:20" ht="12.75" customHeight="1">
-      <c r="K103" s="10"/>
+      <c r="K103" s="8"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
@@ -13313,9 +13240,9 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13332,26 +13259,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
@@ -13361,23 +13288,23 @@
       </c>
       <c r="M1" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R1" s="2">
         <f>SUM(J3:J5)</f>
@@ -13387,10 +13314,10 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
@@ -13444,101 +13371,101 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="A3" s="9"/>
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
         <v>8</v>
       </c>
-      <c r="E3" s="11">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="9">
         <v>4</v>
       </c>
-      <c r="G3" s="11">
+      <c r="F3" s="9">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="22"/>
+      <c r="B4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="11">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11">
-        <v>4</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" s="28"/>
+      <c r="B5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="11">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -13550,16 +13477,16 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -15516,278 +15443,463 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="5" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.9" customHeight="1">
+      <c r="A11" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" customHeight="1">
+      <c r="A13" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" ht="27" customHeight="1">
+      <c r="A14" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.9" customHeight="1">
+      <c r="A15" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A16" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A17" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" ht="27" customHeight="1">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" ht="26.45" customHeight="1">
+      <c r="A20" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.9" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="27" customHeight="1">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+    </row>
+    <row r="23" spans="1:5" ht="27" customHeight="1">
+      <c r="A23" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.45" customHeight="1">
+      <c r="A24" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A25" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.9" customHeight="1">
+      <c r="A26" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.9" customHeight="1">
+      <c r="A27" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" spans="1:5" ht="25.9" customHeight="1">
+      <c r="A28" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
@@ -15901,48 +16013,12 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
+    <row r="52" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="54" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="55" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="57" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="58" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="59" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="60" spans="1:5" ht="12.75" customHeight="1"/>
@@ -16887,21 +16963,18 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A26:A28"/>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A3:A6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16910,11 +16983,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:T999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16927,58 +17000,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="39" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -16993,26 +17095,26 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="10"/>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>120</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -17028,25 +17130,25 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11">
-        <v>25</v>
-      </c>
-      <c r="E8" s="11">
-        <v>8</v>
-      </c>
-      <c r="F8" s="11">
-        <v>192</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="D8" s="9">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9">
+        <v>120</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -17062,43 +17164,23 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11">
-        <v>192</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -17110,9 +17192,6 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -17122,8 +17201,19 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" customHeight="1">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -17142,7 +17232,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -19145,12 +19235,6 @@
       <c r="T103" s="3"/>
     </row>
     <row r="104" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -19166,22 +19250,7 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
     </row>
-    <row r="105" spans="1:20" ht="12.75" customHeight="1">
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-    </row>
+    <row r="105" spans="1:20" ht="12.75" customHeight="1"/>
     <row r="106" spans="1:20" ht="12.75" customHeight="1"/>
     <row r="107" spans="1:20" ht="12.75" customHeight="1"/>
     <row r="108" spans="1:20" ht="12.75" customHeight="1"/>
@@ -19296,7 +19365,7 @@
     <row r="217" ht="12.75" customHeight="1"/>
     <row r="218" ht="12.75" customHeight="1"/>
     <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -20076,13 +20145,12 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1:C1" r:id="rId1" display="Cửa hàng Ebook Online" xr:uid="{9192ACCA-8ABA-49FD-AEC7-89E0C7B03DD4}"/>
